--- a/数据整理/stocks/A股/上证主板/603915-国茂股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603915-国茂股份.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>000110</t>
+          <t>005598</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰元安混合A</t>
+          <t>广发中小盘精选混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>27.24</t>
+          <t>3.41</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002513</t>
+          <t>007811</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰元安混合C</t>
+          <t>淳厚信泽灵活配置混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>27.24</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>10</v>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005598</t>
+          <t>000110</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发中小盘精选混合</t>
+          <t>金鹰元安混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>91.71</t>
+          <t>7.01</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>5</v>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
@@ -576,25 +616,35 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>007811</t>
+          <t>007812</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合A</t>
+          <t>淳厚信泽灵活配置混合C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>76.08</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="F5" t="inlineStr">
         <is>
           <t>3.58</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
         <v>8</v>
       </c>
     </row>
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>007812</t>
+          <t>002513</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>淳厚信泽灵活配置混合C</t>
+          <t>金鹰元安混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>76.08</t>
+          <t>2.08</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>8</v>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -637,7 +697,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -658,15 +718,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -678,26 +748,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003501</t>
+          <t>020005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
+          <t>国泰金马稳健混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>87.21</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5716</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -706,26 +786,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>020005</t>
+          <t>270028</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰金马稳健混合</t>
+          <t>广发制造业精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>9</v>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3532</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -734,25 +824,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006377</t>
+          <t>005598</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发趋势动力灵活配置混合</t>
+          <t>广发中小盘精选混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>84.88</t>
+          <t>2.28</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>2</v>
       </c>
     </row>
@@ -762,26 +862,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>005598</t>
+          <t>000690</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发中小盘精选混合</t>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>87.02</t>
+          <t>3.49</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>2</v>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -800,15 +910,25 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>88.62</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>4.36</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>6</v>
       </c>
     </row>
@@ -828,15 +948,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
           <t>24.32</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>0.71</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
         <v>6</v>
       </c>
     </row>
@@ -846,26 +976,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>002425</t>
+          <t>006377</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>金鹰元禧混合C</t>
+          <t>广发趋势动力灵活配置混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>24.32</t>
+          <t>0.34</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>84.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="9">
@@ -874,26 +1014,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>270028</t>
+          <t>003501</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>广发制造业精选混合A</t>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>0.46</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>8</v>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="10">
@@ -912,15 +1062,25 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
           <t>94.22</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
+      <c r="F10" t="inlineStr">
         <is>
           <t>3.81</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
         <v>8</v>
       </c>
     </row>
@@ -930,26 +1090,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000690</t>
+          <t>002425</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源大海洋战略经济灵活配置混合</t>
+          <t>金鹰元禧混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>84.61</t>
+          <t>1.02</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/603915-国茂股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603915-国茂股份.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1125,4 +1126,326 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.21</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9066</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>020005</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰金马稳健混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.43</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6032</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3710</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0325</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603915-国茂股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603915-国茂股份.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1448,4 +1449,554 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>46.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.26</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.0481</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>270028</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6328</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1876</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.26</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0882</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>82.10</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0579</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001798</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0533</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>85.04</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0425</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.95</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001799</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰康新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>84.72</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>77.99</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603915-国茂股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603915-国茂股份.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1999,4 +2000,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>13</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>7</v>
+      </c>
+      <c r="D3" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>5</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603915-国茂股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603915-国茂股份.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2008,7 +2009,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2019,17 +2020,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2039,14 +2060,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>13</v>
-      </c>
-      <c r="D2" t="n">
-        <v>3.18</v>
+          <t>008082</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.2243</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -2055,14 +2098,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>7</v>
-      </c>
-      <c r="D3" t="n">
-        <v>2.95</v>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.90</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2028</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2071,14 +2136,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.44</v>
+          <t>006346</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>安信量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0188</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -2087,13 +2174,189 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>006347</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>安信量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.23</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>7</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>5</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603915-国茂股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603915-国茂股份.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2255,7 +2256,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2266,17 +2267,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2286,14 +2307,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.47</v>
+          <t>003745</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发多元新兴股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>37.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.1221</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2302,14 +2345,104 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>000969</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源大安全核心精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0478</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D3" t="n">
-        <v>3.18</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4">
@@ -2318,14 +2451,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D4" t="n">
-        <v>2.95</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="5">
@@ -2334,14 +2467,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D5" t="n">
-        <v>1.44</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="6">
@@ -2350,13 +2483,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>5</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.32</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/603915-国茂股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603915-国茂股份.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,243 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005598</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>广发中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>3.41</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.71</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.07</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1729</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
         <v>5</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>007811</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>76.08</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0745</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
+      <c r="D3" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="2" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>000110</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>金鹰元安混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>7.01</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>27.24</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0400</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>7</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.95</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
         <v>10</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007812</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>淳厚信泽灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>76.08</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.58</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0161</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>002513</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>金鹰元安混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.08</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>27.24</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>0.57</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
+      <c r="D6" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.32</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -702,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -723,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -753,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>020005</t>
+          <t>003745</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国泰金马稳健混合</t>
+          <t>广发多元新兴股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>14.08</t>
+          <t>37.91</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.64</t>
+          <t>91.65</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.06</t>
+          <t>2.96</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.5716</t>
+          <t>1.1221</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -791,340 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>270028</t>
+          <t>000969</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发制造业精选混合A</t>
+          <t>前海开源大安全核心精选灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>9.27</t>
+          <t>1.39</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>94.22</t>
+          <t>79.89</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.81</t>
+          <t>3.44</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.3532</t>
+          <t>0.0478</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>005598</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>广发中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.28</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.02</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>6.82</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1555</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>000690</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源大海洋战略经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>3.49</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>84.61</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.87</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1351</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>210003</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>金鹰行业优势混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.99</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>88.62</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.36</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1304</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>210006</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>金鹰元禧混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>6.38</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>24.32</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0453</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006377</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>广发趋势动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>84.88</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0159</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>003501</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>泰达宏利睿智稳健灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.21</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0153</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010023</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>广发制造业精选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.26</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.22</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0099</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002425</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>金鹰元禧混合C</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>1.02</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>24.32</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0072</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +720,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1159,7 +741,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -1189,36 +771,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003745</t>
+          <t>008082</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发多元新兴股票</t>
+          <t>国寿安保研究精选混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.21</t>
+          <t>6.03</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.22</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.9066</t>
+          <t>0.2243</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1227,36 +809,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>020005</t>
+          <t>001521</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国泰金马稳健混合</t>
+          <t>国寿安保成长优选股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>14.43</t>
+          <t>5.20</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>90.98</t>
+          <t>91.13</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>4.18</t>
+          <t>3.90</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.6032</t>
+          <t>0.2028</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -1265,36 +847,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>270028</t>
+          <t>006346</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发制造业精选混合A</t>
+          <t>安信量化优选股票A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>10.54</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>91.66</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.3710</t>
+          <t>0.0188</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -1303,36 +885,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>008082</t>
+          <t>006347</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国寿安保研究精选混合A</t>
+          <t>安信量化优选股票C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.21</t>
+          <t>90.36</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.00</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0325</t>
+          <t>0.0151</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -1341,112 +923,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010023</t>
+          <t>008083</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>广发制造业精选混合C</t>
+          <t>国寿安保研究精选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>91.66</t>
+          <t>92.44</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.52</t>
+          <t>3.72</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0183</t>
+          <t>0.0086</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>8</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006377</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>广发趋势动力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.44</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>89.79</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.08</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0180</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>008083</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>国寿安保研究精选混合C</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.10</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>94.21</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0050</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2010,7 +1516,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2031,7 +1537,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2061,36 +1567,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>008082</t>
+          <t>003745</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国寿安保研究精选混合A</t>
+          <t>广发多元新兴股票</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>6.03</t>
+          <t>59.21</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>94.19</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.2243</t>
+          <t>1.9066</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -2099,36 +1605,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001521</t>
+          <t>020005</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国寿安保成长优选股票</t>
+          <t>国泰金马稳健混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>5.20</t>
+          <t>14.43</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91.13</t>
+          <t>90.98</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.90</t>
+          <t>4.18</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.2028</t>
+          <t>0.6032</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="4">
@@ -2137,36 +1643,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>006346</t>
+          <t>270028</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>安信量化优选股票A</t>
+          <t>广发制造业精选混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>1.33</t>
+          <t>10.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>91.66</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0188</t>
+          <t>0.3710</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -2175,36 +1681,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>006347</t>
+          <t>008082</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>安信量化优选股票C</t>
+          <t>国寿安保研究精选混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>0.65</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>90.36</t>
+          <t>94.21</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>1.41</t>
+          <t>5.00</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.0151</t>
+          <t>0.0325</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -2213,36 +1719,112 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>008083</t>
+          <t>010023</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>国寿安保研究精选混合C</t>
+          <t>广发制造业精选混合C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.23</t>
+          <t>0.52</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>91.66</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>3.72</t>
+          <t>3.52</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.0183</t>
         </is>
       </c>
       <c r="H6" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008083</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>国寿安保研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
@@ -2256,7 +1838,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2277,7 +1859,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2307,36 +1889,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003745</t>
+          <t>020005</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发多元新兴股票</t>
+          <t>国泰金马稳健混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>37.91</t>
+          <t>14.08</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.65</t>
+          <t>91.64</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2.96</t>
+          <t>4.06</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.1221</t>
+          <t>0.5716</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -2345,36 +1927,340 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000969</t>
+          <t>270028</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源大安全核心精选灵活配置混合</t>
+          <t>广发制造业精选混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>1.39</t>
+          <t>9.27</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>79.89</t>
+          <t>94.22</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.44</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0478</t>
+          <t>0.3532</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>10</v>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.02</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1555</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000690</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源大海洋战略经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>84.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1304</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>210006</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0453</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006377</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>广发趋势动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>84.88</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>003501</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>泰达宏利睿智稳健灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0153</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010023</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发制造业精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.22</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002425</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>金鹰元禧混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>24.32</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0072</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -2388,128 +2274,242 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
+          <t>005598</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1729</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>007811</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0745</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="D2" t="n">
-        <v>1.17</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>5</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.18</v>
+          <t>000110</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>金鹰元安混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>7</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.95</v>
+          <t>007812</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>淳厚信泽灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>76.08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0161</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
+          <t>002513</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>金鹰元安混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
         <v>10</v>
       </c>
-      <c r="D6" t="n">
-        <v>1.44</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>5</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.32</v>
-      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/603915-国茂股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603915-国茂股份.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.17</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
-        <v>0.47</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
-        <v>3.18</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D5" t="n">
-        <v>2.95</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D6" t="n">
-        <v>1.44</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>10</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>5</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -583,6 +600,100 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>80.76</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -714,7 +825,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -960,7 +1071,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1510,7 +1621,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1832,7 +1943,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2268,7 +2379,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/上证主板/603915-国茂股份.xlsx
+++ b/数据整理/stocks/A股/上证主板/603915-国茂股份.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D2" t="n">
-        <v>0.03</v>
+        <v>0.32</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3" t="n">
-        <v>1.17</v>
+        <v>0.03</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>0.47</v>
+        <v>1.17</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
-        <v>3.18</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D6" t="n">
-        <v>2.95</v>
+        <v>3.18</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>1.44</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>10</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>5</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.32</v>
       </c>
     </row>
@@ -600,6 +617,442 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>82.79</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1274</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001656</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>农银汇理中国优势灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.26</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0601</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001060</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源高端装备制造灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.69</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0558</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004750</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>广发鑫和灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0273</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>004751</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>广发鑫和灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006123</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0069</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006124</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中融高股息精选混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.21</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>35.79</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.86</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -693,7 +1146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -825,7 +1278,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1071,7 +1524,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1621,7 +2074,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1943,7 +2396,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2379,7 +2832,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
